--- a/data_year/zb/农业/农村居民家庭土地经营情况.xlsx
+++ b/data_year/zb/农业/农村居民家庭土地经营情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,247 +458,57 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.030547697</v>
+        <v>0.037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.062474368</v>
+        <v>0.105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.284329121</v>
+        <v>0.3493</v>
       </c>
       <c r="E2" t="n">
-        <v>1.983478484</v>
+        <v>2.2792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.033018081</v>
+        <v>0.0375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.062923562</v>
+        <v>0.1075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276269724</v>
+        <v>0.4879</v>
       </c>
       <c r="E3" t="n">
-        <v>1.994152382</v>
+        <v>2.301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03</v>
+        <v>0.035769943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.101728418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.484185071</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0717</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1864</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.9634</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.208878746</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.001314804</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.31772263</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.084022162</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.310230898</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.108919678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0424</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3196</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.1587</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1047</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.256</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3493</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.2792</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1075</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4879</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.301</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.035769943</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.101728418</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.484185071</v>
-      </c>
-      <c r="E14" t="n">
         <v>2.339326526</v>
       </c>
     </row>
